--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>91</v>
+        <v>90.90996443119825</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>127.1756288480475</v>
       </c>
       <c r="D2">
-        <v>145</v>
+        <v>145.223646273229</v>
       </c>
       <c r="E2">
-        <v>156</v>
+        <v>155.6548864901937</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>110.1494316218923</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>152.5823799002777</v>
       </c>
       <c r="D3">
-        <v>172</v>
+        <v>171.7538720466177</v>
       </c>
       <c r="E3">
-        <v>186</v>
+        <v>185.0571558005564</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>97.78712888132657</v>
       </c>
       <c r="C4">
-        <v>141</v>
+        <v>140.9180321615854</v>
       </c>
       <c r="D4">
-        <v>163</v>
+        <v>162.7568137071808</v>
       </c>
       <c r="E4">
-        <v>177</v>
+        <v>176.7725866006033</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>76.32890140482263</v>
       </c>
       <c r="C5">
-        <v>104</v>
+        <v>103.7598453378253</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>113.4524513305131</v>
       </c>
       <c r="E5">
-        <v>123</v>
+        <v>123.0657275899866</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>67.10703686789142</v>
       </c>
       <c r="C6">
-        <v>91</v>
+        <v>91.0034172557303</v>
       </c>
       <c r="D6">
-        <v>101</v>
+        <v>100.4885799906723</v>
       </c>
       <c r="E6">
-        <v>108</v>
+        <v>107.6799413253611</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>7.21769646982032</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>9.667251078556275</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>10.69542422372968</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>11.40242995089547</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>343</v>
+        <v>343.3297284706545</v>
       </c>
       <c r="C8">
-        <v>486</v>
+        <v>484.253646212438</v>
       </c>
       <c r="D8">
-        <v>566</v>
+        <v>563.6025118419053</v>
       </c>
       <c r="E8">
-        <v>610</v>
+        <v>608.2989492140863</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>98</v>
+        <v>97.9941022268743</v>
       </c>
       <c r="C9">
-        <v>133</v>
+        <v>132.3790579667428</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>146.3297517308479</v>
       </c>
       <c r="E9">
-        <v>157</v>
+        <v>157.0175606318639</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>42</v>
+        <v>42.20092134826136</v>
       </c>
       <c r="C10">
-        <v>56</v>
+        <v>55.47464984533623</v>
       </c>
       <c r="D10">
-        <v>62</v>
+        <v>61.94369204721546</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>65.23159304044218</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7.75499561688311</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9.681433492774842</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>10.68966408958387</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>12.14613401035982</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>19</v>
+        <v>18.53172855333504</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>25.43311224525159</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>28.25208242872099</v>
       </c>
       <c r="E12">
-        <v>29</v>
+        <v>29.36215466626001</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>24</v>
+        <v>23.7194269451008</v>
       </c>
       <c r="C13">
-        <v>31</v>
+        <v>30.91011122042961</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>34.84610312086366</v>
       </c>
       <c r="E13">
-        <v>37</v>
+        <v>37.12766151224992</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>90.90996443119825</v>
+        <v>92.54474014061059</v>
       </c>
       <c r="C2">
-        <v>127.1756288480475</v>
+        <v>129.0964412588058</v>
       </c>
       <c r="D2">
-        <v>145.223646273229</v>
+        <v>146.6242510942771</v>
       </c>
       <c r="E2">
-        <v>155.6548864901937</v>
+        <v>156.5066480009596</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>110.1494316218923</v>
+        <v>112.1916836622431</v>
       </c>
       <c r="C3">
-        <v>152.5823799002777</v>
+        <v>154.9434366247717</v>
       </c>
       <c r="D3">
-        <v>171.7538720466177</v>
+        <v>173.433670369002</v>
       </c>
       <c r="E3">
-        <v>185.0571558005564</v>
+        <v>186.0785908418733</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>97.78712888132657</v>
+        <v>99.47381076266858</v>
       </c>
       <c r="C4">
-        <v>140.9180321615854</v>
+        <v>142.9947996633675</v>
       </c>
       <c r="D4">
-        <v>162.7568137071808</v>
+        <v>164.313419391844</v>
       </c>
       <c r="E4">
-        <v>176.7725866006033</v>
+        <v>177.7366062292226</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>76.32890140482263</v>
+        <v>77.80979140863415</v>
       </c>
       <c r="C5">
-        <v>103.7598453378253</v>
+        <v>105.4281917505071</v>
       </c>
       <c r="D5">
-        <v>113.4524513305131</v>
+        <v>114.5867636320345</v>
       </c>
       <c r="E5">
-        <v>123.0657275899866</v>
+        <v>123.7547408475159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>67.10703686789142</v>
+        <v>68.39841216087127</v>
       </c>
       <c r="C6">
-        <v>91.0034172557303</v>
+        <v>92.45609996066413</v>
       </c>
       <c r="D6">
-        <v>100.4885799906723</v>
+        <v>101.4896934151635</v>
       </c>
       <c r="E6">
-        <v>107.6799413253611</v>
+        <v>108.2814980734355</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.21769646982032</v>
+        <v>7.359724896928105</v>
       </c>
       <c r="C7">
-        <v>9.667251078556275</v>
+        <v>9.824192548335123</v>
       </c>
       <c r="D7">
-        <v>10.69542422372968</v>
+        <v>10.80288259483659</v>
       </c>
       <c r="E7">
-        <v>11.40242995089547</v>
+        <v>11.46647658683863</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>343.3297284706545</v>
+        <v>349.2498139190442</v>
       </c>
       <c r="C8">
-        <v>484.253646212438</v>
+        <v>491.2396518468012</v>
       </c>
       <c r="D8">
-        <v>563.6025118419053</v>
+        <v>568.8485080698634</v>
       </c>
       <c r="E8">
-        <v>608.2989492140863</v>
+        <v>611.5977192606124</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>97.9941022268743</v>
+        <v>99.90058556864138</v>
       </c>
       <c r="C9">
-        <v>132.3790579667428</v>
+        <v>134.5045581053082</v>
       </c>
       <c r="D9">
-        <v>146.3297517308479</v>
+        <v>147.7896822886859</v>
       </c>
       <c r="E9">
-        <v>157.0175606318639</v>
+        <v>157.8957700449844</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>42.20092134826136</v>
+        <v>43.05038409831338</v>
       </c>
       <c r="C10">
-        <v>55.47464984533623</v>
+        <v>56.39092900553602</v>
       </c>
       <c r="D10">
-        <v>61.94369204721546</v>
+        <v>62.5722401152523</v>
       </c>
       <c r="E10">
-        <v>65.23159304044218</v>
+        <v>65.60043381073375</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.75499561688311</v>
+        <v>7.910677975125875</v>
       </c>
       <c r="C11">
-        <v>9.681433492774842</v>
+        <v>9.840885596036706</v>
       </c>
       <c r="D11">
-        <v>10.68966408958387</v>
+        <v>10.79791207364155</v>
       </c>
       <c r="E11">
-        <v>12.14613401035982</v>
+        <v>12.21472371348436</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>18.53172855333504</v>
+        <v>18.91319039043179</v>
       </c>
       <c r="C12">
-        <v>25.43311224525159</v>
+        <v>25.85986069295708</v>
       </c>
       <c r="D12">
-        <v>28.25208242872099</v>
+        <v>28.5411552733841</v>
       </c>
       <c r="E12">
-        <v>29.36215466626001</v>
+        <v>29.52913802988394</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>23.7194269451008</v>
+        <v>24.19718501648777</v>
       </c>
       <c r="C13">
-        <v>30.91011122042961</v>
+        <v>31.42095294690973</v>
       </c>
       <c r="D13">
-        <v>34.84610312086366</v>
+        <v>35.19982168201505</v>
       </c>
       <c r="E13">
-        <v>37.12766151224992</v>
+        <v>37.33765456045538</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>99.47381076266858</v>
+        <v>99.47381076266861</v>
       </c>
       <c r="C4">
         <v>142.9947996633675</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.359724896928105</v>
+        <v>7.359724896928106</v>
       </c>
       <c r="C7">
         <v>9.824192548335123</v>
@@ -541,7 +541,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.910677975125875</v>
+        <v>7.910677975125876</v>
       </c>
       <c r="C11">
         <v>9.840885596036706</v>
@@ -567,7 +567,7 @@
         <v>28.5411552733841</v>
       </c>
       <c r="E12">
-        <v>29.52913802988394</v>
+        <v>29.52913802988393</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -581,7 +581,7 @@
         <v>31.42095294690973</v>
       </c>
       <c r="D13">
-        <v>35.19982168201505</v>
+        <v>35.19982168201504</v>
       </c>
       <c r="E13">
         <v>37.33765456045538</v>
